--- a/Resources/support.xlsx
+++ b/Resources/support.xlsx
@@ -399,7 +399,7 @@
       <selection activeCell="B3" sqref="B3:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="6.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="11.90625" customWidth="1" min="2" max="2"/>
@@ -3401,7 +3401,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="52" customWidth="1" min="1" max="1"/>
   </cols>
@@ -3488,15 +3488,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="5.36328125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="40" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3577,6 +3580,160 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>'No Cost Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TylerLarson@rep.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>400463</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>'No Cost Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>StephanieLynn@rep.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>400465</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>'No Cost Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TinaJohnson@rep.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>400466</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>'No Cost Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MaryJoyce@rep.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>400470</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MichaelFisher@rep.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>400472</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GeorgeKeller@rep.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>400478</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>StacyJenkins@rep.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>400479</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>'No Cost Signup'</t>
         </is>

--- a/Resources/support.xlsx
+++ b/Resources/support.xlsx
@@ -3396,7 +3396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -3537,6 +3537,162 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>AVR2109130159655</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>100091252</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AVR2109130159669</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>100091265</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AVR2109140159696</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>100091269</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AVR2109140159701</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>100091293</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AVR2109140159735</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>100091308</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AVR2109140159770</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>100091313</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AVR2109140159779</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>100091329</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AVR2109150159798</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>100091330</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AVR2109150159800</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>100091331</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AVC2109150159802</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>100091332</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AVC2109150159803</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>100091340</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AVR2109150159822</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>100091341</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AVC2109150159824</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>100091349</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AVC2109150159844</t>
         </is>
       </c>
     </row>
@@ -3645,18 +3801,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="60" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="54" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="12" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4619,6 +4775,517 @@
       <c r="D44" t="inlineStr">
         <is>
           <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PS_AndrewGarcia918676@rep.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>400694</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PS_JohnLee435345@rep.com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>400696</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PS_VictoriaElliott000386@rep.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>400698</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PS_AmyMckee002177@rep.com</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>400714</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PS_DavidQuinn422557@rep.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PS_AnthonySmith687151@cust.com</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PS_DanielSchaefer947839@cust.com</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PS_MichaelAllen900687@cust.com</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PS_JohnLowery300976@rep.com</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>400741</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PS_MikeJohns875393@cust.com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PS_ShannonHill831873@cust.com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PS_ValerieDecker636589@cust.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PS_JenniferParker575132@cust.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PS_JohnNewman010317@cust.com</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PS_DonaldGreen773965@cust.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PS_ShawnBaird184299@cust.com</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PS_KeithBowers865467@cust.com</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PS_ScottKing912388@cust.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PS_DavidHarding613365@cust.com</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PS_TylerHarper574582@cust.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PS_JoshuaIrwin586872@cust.com</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PS_ChristopherJohnson498593@cust.com</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PS_TamiMorton196216@cust.com</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PS_KyleBerry373554@cust.com</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PS_RachelOchoa714693@rep.com</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>400767</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>'Donation Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PS_DeborahHouse262572@rep.com</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>400774</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PS_SherryCrawford006713@cust.com</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PS_ChadBruce540881@cust.com</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Unattached</t>
         </is>
       </c>
     </row>

--- a/Resources/support.xlsx
+++ b/Resources/support.xlsx
@@ -3396,7 +3396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -3693,6 +3693,342 @@
       <c r="B24" t="inlineStr">
         <is>
           <t>AVC2109150159844</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>100091365</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AVR2109160159882</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>100091366</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AVC2109160159884</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>100091368</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AVC2109160159888</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>100091371</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AVR2109160159892</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>100091373</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AVR2109160159895</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>100091379</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AVC2109160159911</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>100091380</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AVC2109160159912</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>100091381</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AVC2109160159913</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>100091382</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AVC2109160159914</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>100091383</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AVC2109160159915</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>100091385</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AVC2109160159922</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>100091386</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AVC2109160159923</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>100091387</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AVC2109160159924</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>100091388</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AVR2109160159925</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>100091390</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AVR2109160159930</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>100091391</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AVR2109160159933</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>100091392</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AVR2109160159935</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>100091393</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AVR2109160159937</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>100091394</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AVR2109160159939</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>100091395</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AVR2109160159941</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>100091396</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AVR2109160159943</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>100091397</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>AVR2109160159945</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>100091399</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AVR2109160159951</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>100091401</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AVR2109160159955</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>100091403</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AVR2109160159962</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>100091412</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AVR2109160159993</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>100091413</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AVR2109160159995</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>100091414</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>AVR2109160159997</t>
         </is>
       </c>
     </row>
@@ -3801,18 +4137,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="54" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="62" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="12" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5286,6 +5622,408 @@
       <c r="D72" t="inlineStr">
         <is>
           <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PS_KimberlySteele890355@rep.com</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>400780</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>'No Cost Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PS_LarryCooper438458@rep.com</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>400781</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>'No Cost Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PS_CarlWillis987884@rep.com</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>400782</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>'Donation Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PS_DianeStark251159@rep.com</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>400783</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PS_MatthewDalton830636@cust.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Attached</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PS_DouglasHale299767@cust.com</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PS_JeremyJones818349@rep.com</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>400788</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>'Donation Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PS_ShaunThomas345399@rep.com</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>400789</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PS_MelindaSingh531223@rep.com</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>400791</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PS_TanyaLawson263831@cust.com</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PS_TonyaMoore484276@cust.com</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PS_ReneeRiley097838@cust.com</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PS_StevenWagner596338@cust.com</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PS_BrendaLevine471513@cust.com</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PS_TiffanyWaters591843@cust.com</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PS_JustinParks532136@cust.com</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PS_MarkMerritt066755@cust.com</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PS_LaurenDay052291@cust.com</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PS_AndreHoffman032937@cust.com</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Cust</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PS_AlanHarris521913@rep.com</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>400804</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PS_AndrewStafford029758@rep.com</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>400806</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
         </is>
       </c>
     </row>

--- a/Resources/support.xlsx
+++ b/Resources/support.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="line numbers" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,8 +397,8 @@
   </sheetPr>
   <dimension ref="A1:B398"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -420,7 +420,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>981161</t>
+          <t>759805</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -430,7 +430,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>407008</t>
+          <t>763326</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -440,7 +440,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>407103</t>
+          <t>407008</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -450,7 +450,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>407400</t>
+          <t>407103</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -460,7 +460,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>408459</t>
+          <t>407400</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -470,7 +470,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>408463</t>
+          <t>408459</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -480,7 +480,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>408501</t>
+          <t>408463</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -490,7 +490,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>408607</t>
+          <t>408501</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -500,7 +500,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>408664</t>
+          <t>408607</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -510,7 +510,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>408831</t>
+          <t>408664</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -520,7 +520,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>409178</t>
+          <t>408831</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -530,7 +530,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>409326</t>
+          <t>409178</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -540,7 +540,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>409379</t>
+          <t>409326</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -550,7 +550,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>409383</t>
+          <t>409379</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -560,7 +560,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>409398</t>
+          <t>409383</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -570,7 +570,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>409402</t>
+          <t>409398</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -580,7 +580,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>409417</t>
+          <t>409402</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -590,7 +590,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>409421</t>
+          <t>409417</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -600,7 +600,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>409436</t>
+          <t>409421</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -610,7 +610,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>409618</t>
+          <t>409436</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -620,7 +620,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>409656</t>
+          <t>409618</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -630,7 +630,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>410182</t>
+          <t>409656</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -640,7 +640,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>410201</t>
+          <t>410182</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -650,7 +650,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>410307</t>
+          <t>410201</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -660,7 +660,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>410326</t>
+          <t>410307</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -670,7 +670,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>410330</t>
+          <t>410326</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -680,7 +680,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>410345</t>
+          <t>410330</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -690,7 +690,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>410823</t>
+          <t>410345</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -700,7 +700,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>410876</t>
+          <t>410823</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -710,7 +710,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>411796</t>
+          <t>410876</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -720,7 +720,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>412003</t>
+          <t>411796</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -730,7 +730,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>412390</t>
+          <t>412003</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -740,7 +740,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>412410</t>
+          <t>412390</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -750,7 +750,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>412697</t>
+          <t>412410</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -760,7 +760,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>412701</t>
+          <t>412697</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -770,7 +770,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>412716</t>
+          <t>412701</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -780,7 +780,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>413215</t>
+          <t>412716</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -790,7 +790,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>407050</t>
+          <t>413215</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -800,7 +800,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>407706</t>
+          <t>827062</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -810,7 +810,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>407710</t>
+          <t>827077</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -820,7 +820,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>407926</t>
+          <t>827058</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -830,7 +830,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>407979</t>
+          <t>811799</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -840,7 +840,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>407983</t>
+          <t>151073</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -850,7 +850,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>407998</t>
+          <t>151111</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -860,7 +860,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>926121</t>
+          <t>151150</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -870,7 +870,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>934327</t>
+          <t>151179</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -880,7 +880,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>934881</t>
+          <t>151183</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -890,7 +890,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>936463</t>
+          <t>151221</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -900,7 +900,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>938800</t>
+          <t>151289</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -910,7 +910,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>939367</t>
+          <t>763493</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -920,7 +920,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>942757</t>
+          <t>154641</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -930,7 +930,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>154641</t>
+          <t>187532</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -940,7 +940,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>151073</t>
+          <t>183518</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -950,7 +950,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>151111</t>
+          <t>183580</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -960,7 +960,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>151150</t>
+          <t>183609</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -970,7 +970,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>151179</t>
+          <t>183628</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -980,7 +980,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>151183</t>
+          <t>183962</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -990,7 +990,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>151221</t>
+          <t>183996</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1000,7 +1000,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>151289</t>
+          <t>181591</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1010,7 +1010,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>589413</t>
+          <t>184040</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1020,7 +1020,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>763493</t>
+          <t>184442</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1030,7 +1030,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>763326</t>
+          <t>185711</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1040,7 +1040,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>811799</t>
+          <t>185726</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1050,7 +1050,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>759805</t>
+          <t>186938</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1060,7 +1060,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>183518</t>
+          <t>186976</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1070,7 +1070,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>183580</t>
+          <t>187370</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1080,7 +1080,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>183609</t>
+          <t>146814</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1090,7 +1090,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>183628</t>
+          <t>146833</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1100,7 +1100,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>183962</t>
+          <t>146852</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1110,7 +1110,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>183996</t>
+          <t>146871</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1120,7 +1120,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>181591</t>
+          <t>146905</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1130,7 +1130,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>182545</t>
+          <t>146910</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1140,7 +1140,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>182602</t>
+          <t>182545</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1150,7 +1150,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>182640</t>
+          <t>182602</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1160,455 +1160,455 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>182689</t>
+          <t>182640</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>182841</t>
+          <t>182689</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>182875</t>
+          <t>182841</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>183154</t>
+          <t>182875</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>827062</t>
+          <t>183154</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>827077</t>
+          <t>831334</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>827058</t>
+          <t>831702</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>146814</t>
+          <t>831740</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>146833</t>
+          <t>833380</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>146852</t>
+          <t>833614</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>146871</t>
+          <t>221285</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>146905</t>
+          <t>221323</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>146910</t>
+          <t>222262</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>831334</t>
+          <t>589413</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>831702</t>
+          <t>525653</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>831740</t>
+          <t>981161</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>833380</t>
+          <t>354978</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>833614</t>
+          <t>354982</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>221285</t>
+          <t>354997</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>221323</t>
+          <t>355022</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>222262</t>
+          <t>355037</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>175274</t>
+          <t>353660</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>175183</t>
+          <t>353675</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>175198</t>
+          <t>353680</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>175202</t>
+          <t>353838</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>175217</t>
+          <t>353914</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>175236</t>
+          <t>353948</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>175255</t>
+          <t>353952</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>175260</t>
+          <t>786865</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>179561</t>
+          <t>786918</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>178570</t>
+          <t>013299</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>178660</t>
+          <t>013303</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>178680</t>
+          <t>013341</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>178000</t>
+          <t>013705</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>180011</t>
+          <t>015014</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>182215</t>
+          <t>015511</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>182268</t>
+          <t>899119</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>182746</t>
+          <t>899123</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>525653</t>
+          <t>899142</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>786865</t>
+          <t>899176</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>786918</t>
+          <t>899195</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>013299</t>
+          <t>153554</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>013303</t>
+          <t>159203</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>013341</t>
+          <t>159222</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>013705</t>
+          <t>784700</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>015014</t>
+          <t>792800</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>015511</t>
+          <t>824389</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>899119</t>
+          <t>821891</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>899123</t>
+          <t>821906</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>899142</t>
+          <t>821910</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>899176</t>
+          <t>821925</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>899195</t>
+          <t>821930</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>153554</t>
+          <t>821944</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>159203</t>
+          <t>822113</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>159222</t>
+          <t>822371</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>784700</t>
+          <t>823067</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>792800</t>
+          <t>823071</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>824389</t>
+          <t>823086</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>821891</t>
+          <t>823090</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>821906</t>
+          <t>823105</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>821910</t>
+          <t>970005</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>821925</t>
+          <t>064784</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>821930</t>
+          <t>066825</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>821944</t>
+          <t>067267</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>822113</t>
+          <t>065470</t>
         </is>
       </c>
     </row>
@@ -3430,10 +3430,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="127" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -3457,156 +3457,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100163786</t>
+          <t>100164040</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AVC2111240155305</t>
+          <t>AVR2112140155874</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100163787</t>
+          <t>100164041</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AVR2111240155306</t>
+          <t>AVR2112140155876</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100163798</t>
+          <t>100164042</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AVR2111250155327</t>
+          <t>AVR2112140155878</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>100163799</t>
+          <t>100164043</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AVR2111250155330</t>
+          <t>AVC2112140155880</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>100163801</t>
+          <t>100164048</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AVR2111260155334</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>100163802</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AVR2111260155336</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>100163803</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AVR2111260155340</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>100163804</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AVC2111260155342</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>100163805</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AVR2111290155343</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>100163806</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AVC2111290155345</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>100163807</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AVC2111290155346</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>100163809</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AVR2111290155349</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>100163812</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AVR2111290155353</t>
+          <t>AVC2112150155888</t>
         </is>
       </c>
     </row>
@@ -3687,15 +3591,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="58" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="56" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="12" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="32" customWidth="1" min="4" max="4"/>
@@ -3720,1334 +3624,6 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>Notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PS_JoseFranco395581@rep.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>261869</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PS_TanyaFowler827557@rep.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>261870</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PS_DiamondRamirez824697@cust.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Unattached</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PS_ChristopherRodriguez574832@rep.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>261929</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PS_GregoryThompson412568@rep.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>261930</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PS_KellyLyons287561@rep.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>261931</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PS_TimothyLong370686@rep.com</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>261932</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PS_BenjaminSanchez467853@rep.com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>261933</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PS_AlbertRoss473215@rep.com</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>500042</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PS_NormaLozano276339@rep.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>500081</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PS_LauraWalters595651@rep.com</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>500082</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PS_TracySanders636996@rep.com</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>500110</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PS_NatalieAllison293923@rep.com</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>500204</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PS_AndrewAlvarez837751@rep.com</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>500205</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PS_GinaOlson364263@cust.com</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PS_WillieSanchez791215@rep.com</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>500213</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PS_VanessaAcosta104918@rep.com</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>500216</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PS_RoyHill009658@cust.com</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>PS_RuthJimenez074223@cust.com</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>PS_ConnieAnderson112948@rep.com</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>500220</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>PS_ReginaGillespie504396@cust.com</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Unattached</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>PS_LynnStokes374952@cust.com</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>PS_PatriciaMartin962881@cust.com</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>PS_KerryKeller591598@cust.com</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Unattached</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>PS_DouglasSmith100453@cust.com</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>PS_KatherineKeller093219@cust.com</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Unattached</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>PS_OliviaTorres092664@cust.com</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>PS_SusanSullivan852434@rep.com</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>500255</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>PS_WendyKim027627@rep.com</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>500276</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>PS_NathanZuniga352614@cust.com</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>PS_JenniferHardin119426@cust.com</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>PS_ReneeAndrade144267@cust.com</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Attached</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>PS_RebeccaChavez145322@cust.com</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Unattached</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>PS_ChadSanchez458622@cust.com</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Cust</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Unattached</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PS_JeffNelson592945@rep.com</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>500299</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PS_MarkFord761582@rep.com</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>500303</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PS_EricBurnett456828@rep.com</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>500311</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>PS_CodyBrown027726@rep.com</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>500314</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>PS_ShannonEdwards983443@rep.com</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>500315</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>PS_RachelLynch974813@rep.com</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>510698</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>PS_EmmaMarshall590196@rep.com</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>512653</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>PS_LindsayCline655378@rep.com</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>525327</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>PS_MichaelBrewer858745@rep.com</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>540398</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>PS_TammyWashington633897@rep.com</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>549859</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>PS_TaraMartin208412@rep.com</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>549860</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PS_MaryChase936241@rep.com</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>549863</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>PS_VanessaSnyder095986@rep.com</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>549869</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>PS_HeatherLee171753@rep.com</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>549870</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>PS_EdwardHughes659389@rep.com</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>549871</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>PS_DarylWelch063746@rep.com</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>570138</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>PS_ChristieRivera037291@rep.com</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>595961</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>'30$ kit Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>PS_JulieDay591144@rep.com</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>595962</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>PS_MarcusPeterson881561@rep.com</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>595968</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>PS_HeatherWilliams564213@rep.com</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>629014</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>PS_JamesRobertson611884@rep.com</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>629015</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>PS_StephanieParker606527@rep.com</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>629016</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>PS_TraceyNichols305952@rep.com</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>629017</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>PS_AngelaMoran637736@rep.com</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>629027</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>PS_BeckyJohnson345839@rep.com</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>629173</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>PS_ChadMcclain394138@rep.com</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>629174</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>PS_LauraBrown508281@rep.com</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>629176</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>PS_DanielParker389815@rep.com</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>629177</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>PS_RalphMeyer363279@rep.com</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>629178</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>'Donation Signup'</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>PS_AdamSantiago239267@rep.com</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>REP</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>629179</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>'No Cost Signup'</t>
         </is>
       </c>
     </row>
@@ -5063,7 +3639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7211"/>
+  <dimension ref="A1:B6905"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -72791,6 +71367,7 @@
         </is>
       </c>
     </row>
+    <row r="6850"/>
     <row r="6851">
       <c r="A6851" t="inlineStr">
         <is>
@@ -72851,6 +71428,7 @@
         </is>
       </c>
     </row>
+    <row r="6856"/>
     <row r="6857">
       <c r="A6857" t="inlineStr">
         <is>
@@ -72875,6 +71453,7 @@
         </is>
       </c>
     </row>
+    <row r="6859"/>
     <row r="6860">
       <c r="A6860" t="inlineStr">
         <is>
@@ -72899,6 +71478,9 @@
         </is>
       </c>
     </row>
+    <row r="6862"/>
+    <row r="6863"/>
+    <row r="6864"/>
     <row r="6865">
       <c r="A6865" t="inlineStr">
         <is>
@@ -73127,6 +71709,9 @@
         </is>
       </c>
     </row>
+    <row r="6884">
+      <c r="A6884" t="inlineStr"/>
+    </row>
     <row r="6885">
       <c r="A6885" t="inlineStr">
         <is>
@@ -73187,6 +71772,9 @@
         </is>
       </c>
     </row>
+    <row r="6890">
+      <c r="A6890" t="inlineStr"/>
+    </row>
     <row r="6891">
       <c r="A6891" t="inlineStr">
         <is>
@@ -73211,6 +71799,9 @@
         </is>
       </c>
     </row>
+    <row r="6893">
+      <c r="A6893" t="inlineStr"/>
+    </row>
     <row r="6894">
       <c r="A6894" t="inlineStr">
         <is>
@@ -73235,6 +71826,15 @@
         </is>
       </c>
     </row>
+    <row r="6896">
+      <c r="A6896" t="inlineStr"/>
+    </row>
+    <row r="6897">
+      <c r="A6897" t="inlineStr"/>
+    </row>
+    <row r="6898">
+      <c r="A6898" t="inlineStr"/>
+    </row>
     <row r="6899">
       <c r="A6899" t="inlineStr">
         <is>
@@ -73314,3054 +71914,6 @@
         </is>
       </c>
       <c r="B6905" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6906">
-      <c r="A6906" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B6906" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6907">
-      <c r="A6907" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B6907" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6908">
-      <c r="A6908" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B6908" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6909">
-      <c r="A6909" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B6909" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6910">
-      <c r="A6910" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B6910" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6911">
-      <c r="A6911" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B6911" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6912">
-      <c r="A6912" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B6912" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6913">
-      <c r="A6913" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B6913" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6914">
-      <c r="A6914" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B6914" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6915">
-      <c r="A6915" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B6915" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6916">
-      <c r="A6916" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B6916" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6917">
-      <c r="A6917" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B6917" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6919">
-      <c r="A6919" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B6919" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6920">
-      <c r="A6920" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B6920" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6921">
-      <c r="A6921" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B6921" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6922">
-      <c r="A6922" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B6922" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6923">
-      <c r="A6923" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B6923" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6925">
-      <c r="A6925" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B6925" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6926">
-      <c r="A6926" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B6926" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6928">
-      <c r="A6928" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B6928" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6929">
-      <c r="A6929" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B6929" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6933">
-      <c r="A6933" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B6933" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6934">
-      <c r="A6934" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B6934" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6935">
-      <c r="A6935" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B6935" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6936">
-      <c r="A6936" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B6936" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6937">
-      <c r="A6937" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B6937" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6938">
-      <c r="A6938" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B6938" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6939">
-      <c r="A6939" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B6939" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6940">
-      <c r="A6940" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B6940" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6941">
-      <c r="A6941" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B6941" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6942">
-      <c r="A6942" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B6942" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6943">
-      <c r="A6943" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B6943" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6944">
-      <c r="A6944" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B6944" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6945">
-      <c r="A6945" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B6945" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6946">
-      <c r="A6946" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B6946" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6947">
-      <c r="A6947" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B6947" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6948">
-      <c r="A6948" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B6948" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6949">
-      <c r="A6949" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B6949" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6950">
-      <c r="A6950" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B6950" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6951">
-      <c r="A6951" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B6951" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6953">
-      <c r="A6953" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B6953" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6954">
-      <c r="A6954" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B6954" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6955">
-      <c r="A6955" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B6955" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6956">
-      <c r="A6956" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B6956" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6957">
-      <c r="A6957" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B6957" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6959">
-      <c r="A6959" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B6959" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6960">
-      <c r="A6960" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B6960" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6962">
-      <c r="A6962" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B6962" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6963">
-      <c r="A6963" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B6963" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6967">
-      <c r="A6967" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B6967" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6968">
-      <c r="A6968" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B6968" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6969">
-      <c r="A6969" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B6969" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6970">
-      <c r="A6970" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B6970" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6971">
-      <c r="A6971" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B6971" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6972">
-      <c r="A6972" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B6972" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6973">
-      <c r="A6973" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B6973" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6974">
-      <c r="A6974" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B6974" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6975">
-      <c r="A6975" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B6975" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6976">
-      <c r="A6976" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B6976" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6977">
-      <c r="A6977" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B6977" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6978">
-      <c r="A6978" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B6978" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6979">
-      <c r="A6979" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B6979" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6980">
-      <c r="A6980" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B6980" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6981">
-      <c r="A6981" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B6981" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6982">
-      <c r="A6982" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B6982" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6983">
-      <c r="A6983" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B6983" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6984">
-      <c r="A6984" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B6984" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6985">
-      <c r="A6985" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B6985" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6987">
-      <c r="A6987" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B6987" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6988">
-      <c r="A6988" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B6988" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6989">
-      <c r="A6989" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B6989" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6990">
-      <c r="A6990" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B6990" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6991">
-      <c r="A6991" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B6991" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6993">
-      <c r="A6993" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B6993" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6994">
-      <c r="A6994" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B6994" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6996">
-      <c r="A6996" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B6996" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6997">
-      <c r="A6997" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B6997" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7001">
-      <c r="A7001" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B7001" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7002">
-      <c r="A7002" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B7002" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7003">
-      <c r="A7003" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B7003" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7004">
-      <c r="A7004" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B7004" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7005">
-      <c r="A7005" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B7005" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7006">
-      <c r="A7006" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B7006" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7007">
-      <c r="A7007" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B7007" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7008">
-      <c r="A7008" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B7008" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7009">
-      <c r="A7009" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B7009" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7010">
-      <c r="A7010" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B7010" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7011">
-      <c r="A7011" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7011" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7012">
-      <c r="A7012" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B7012" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7013">
-      <c r="A7013" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B7013" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7014">
-      <c r="A7014" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B7014" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7015">
-      <c r="A7015" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B7015" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7016">
-      <c r="A7016" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B7016" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7017">
-      <c r="A7017" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B7017" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7018">
-      <c r="A7018" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B7018" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7019">
-      <c r="A7019" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B7019" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7021">
-      <c r="A7021" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B7021" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7022">
-      <c r="A7022" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7022" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7023">
-      <c r="A7023" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B7023" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7024">
-      <c r="A7024" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B7024" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7025">
-      <c r="A7025" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B7025" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7027">
-      <c r="A7027" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B7027" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7028">
-      <c r="A7028" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B7028" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7030">
-      <c r="A7030" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B7030" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7031">
-      <c r="A7031" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B7031" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7035">
-      <c r="A7035" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B7035" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7036">
-      <c r="A7036" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B7036" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7037">
-      <c r="A7037" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B7037" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7038">
-      <c r="A7038" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B7038" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7039">
-      <c r="A7039" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B7039" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7040">
-      <c r="A7040" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B7040" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7041">
-      <c r="A7041" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B7041" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7042">
-      <c r="A7042" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B7042" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7043">
-      <c r="A7043" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B7043" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7044">
-      <c r="A7044" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B7044" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7045">
-      <c r="A7045" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7045" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7046">
-      <c r="A7046" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B7046" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7047">
-      <c r="A7047" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B7047" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7048">
-      <c r="A7048" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B7048" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7049">
-      <c r="A7049" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B7049" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7050">
-      <c r="A7050" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B7050" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7051">
-      <c r="A7051" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B7051" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7052">
-      <c r="A7052" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B7052" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7053">
-      <c r="A7053" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B7053" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7055">
-      <c r="A7055" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B7055" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7056">
-      <c r="A7056" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7056" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7057">
-      <c r="A7057" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B7057" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7058">
-      <c r="A7058" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B7058" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7059">
-      <c r="A7059" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B7059" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7061">
-      <c r="A7061" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B7061" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7062">
-      <c r="A7062" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B7062" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7064">
-      <c r="A7064" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B7064" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7065">
-      <c r="A7065" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B7065" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7069">
-      <c r="A7069" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B7069" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7070">
-      <c r="A7070" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B7070" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7071">
-      <c r="A7071" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B7071" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7072">
-      <c r="A7072" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B7072" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7073">
-      <c r="A7073" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B7073" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7074">
-      <c r="A7074" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B7074" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7075">
-      <c r="A7075" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B7075" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7076">
-      <c r="A7076" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B7076" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7077">
-      <c r="A7077" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B7077" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7078">
-      <c r="A7078" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B7078" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7079">
-      <c r="A7079" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7079" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7080">
-      <c r="A7080" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B7080" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7081">
-      <c r="A7081" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B7081" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7082">
-      <c r="A7082" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B7082" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7083">
-      <c r="A7083" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B7083" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7084">
-      <c r="A7084" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B7084" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7085">
-      <c r="A7085" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B7085" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7086">
-      <c r="A7086" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B7086" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7087">
-      <c r="A7087" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B7087" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7089">
-      <c r="A7089" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B7089" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7090">
-      <c r="A7090" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7090" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7091">
-      <c r="A7091" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B7091" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7092">
-      <c r="A7092" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B7092" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7093">
-      <c r="A7093" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B7093" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7095">
-      <c r="A7095" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B7095" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7096">
-      <c r="A7096" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B7096" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7098">
-      <c r="A7098" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B7098" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7099">
-      <c r="A7099" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B7099" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7103">
-      <c r="A7103" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B7103" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7104">
-      <c r="A7104" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B7104" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7105">
-      <c r="A7105" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B7105" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7106">
-      <c r="A7106" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B7106" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7107">
-      <c r="A7107" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B7107" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7108">
-      <c r="A7108" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B7108" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7109">
-      <c r="A7109" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B7109" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7110">
-      <c r="A7110" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B7110" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7111">
-      <c r="A7111" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B7111" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7112">
-      <c r="A7112" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B7112" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7113">
-      <c r="A7113" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7113" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7114">
-      <c r="A7114" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B7114" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7115">
-      <c r="A7115" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B7115" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7116">
-      <c r="A7116" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B7116" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7117">
-      <c r="A7117" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B7117" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7118">
-      <c r="A7118" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B7118" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7119">
-      <c r="A7119" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B7119" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7120">
-      <c r="A7120" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B7120" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7121">
-      <c r="A7121" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B7121" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7123">
-      <c r="A7123" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B7123" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7124">
-      <c r="A7124" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7124" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7125">
-      <c r="A7125" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B7125" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7126">
-      <c r="A7126" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B7126" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7127">
-      <c r="A7127" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B7127" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7129">
-      <c r="A7129" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B7129" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7130">
-      <c r="A7130" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B7130" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7132">
-      <c r="A7132" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B7132" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7133">
-      <c r="A7133" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B7133" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7137">
-      <c r="A7137" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B7137" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7138">
-      <c r="A7138" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B7138" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7139">
-      <c r="A7139" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B7139" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7140">
-      <c r="A7140" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B7140" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7141">
-      <c r="A7141" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B7141" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7142">
-      <c r="A7142" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B7142" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7143">
-      <c r="A7143" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B7143" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7144">
-      <c r="A7144" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B7144" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7145">
-      <c r="A7145" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B7145" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7146">
-      <c r="A7146" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B7146" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7147">
-      <c r="A7147" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7147" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7148">
-      <c r="A7148" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B7148" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7149">
-      <c r="A7149" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B7149" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7150">
-      <c r="A7150" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B7150" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7151">
-      <c r="A7151" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B7151" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7152">
-      <c r="A7152" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B7152" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7153">
-      <c r="A7153" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B7153" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7154">
-      <c r="A7154" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B7154" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7155">
-      <c r="A7155" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B7155" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7156"/>
-    <row r="7157">
-      <c r="A7157" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B7157" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7158">
-      <c r="A7158" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7158" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7159">
-      <c r="A7159" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B7159" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7160">
-      <c r="A7160" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B7160" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7161">
-      <c r="A7161" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B7161" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7162"/>
-    <row r="7163">
-      <c r="A7163" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B7163" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7164">
-      <c r="A7164" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B7164" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7165"/>
-    <row r="7166">
-      <c r="A7166" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B7166" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7167">
-      <c r="A7167" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B7167" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7168"/>
-    <row r="7169"/>
-    <row r="7170"/>
-    <row r="7171">
-      <c r="A7171" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B7171" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7172">
-      <c r="A7172" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B7172" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7173">
-      <c r="A7173" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B7173" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7174">
-      <c r="A7174" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B7174" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7175">
-      <c r="A7175" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B7175" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7176">
-      <c r="A7176" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B7176" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7177">
-      <c r="A7177" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B7177" t="inlineStr">
-        <is>
-          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7178">
-      <c r="A7178" t="inlineStr">
-        <is>
-          <t>0000002205</t>
-        </is>
-      </c>
-      <c r="B7178" t="inlineStr">
-        <is>
-          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7179">
-      <c r="A7179" t="inlineStr">
-        <is>
-          <t>0000002207</t>
-        </is>
-      </c>
-      <c r="B7179" t="inlineStr">
-        <is>
-          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7180">
-      <c r="A7180" t="inlineStr">
-        <is>
-          <t>0000002214</t>
-        </is>
-      </c>
-      <c r="B7180" t="inlineStr">
-        <is>
-          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7181">
-      <c r="A7181" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7181" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7182">
-      <c r="A7182" t="inlineStr">
-        <is>
-          <t>0000002211</t>
-        </is>
-      </c>
-      <c r="B7182" t="inlineStr">
-        <is>
-          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7183">
-      <c r="A7183" t="inlineStr">
-        <is>
-          <t>0000002212</t>
-        </is>
-      </c>
-      <c r="B7183" t="inlineStr">
-        <is>
-          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7184">
-      <c r="A7184" t="inlineStr">
-        <is>
-          <t>0000002209</t>
-        </is>
-      </c>
-      <c r="B7184" t="inlineStr">
-        <is>
-          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7185">
-      <c r="A7185" t="inlineStr">
-        <is>
-          <t>0000002206</t>
-        </is>
-      </c>
-      <c r="B7185" t="inlineStr">
-        <is>
-          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7186">
-      <c r="A7186" t="inlineStr">
-        <is>
-          <t>0000002215</t>
-        </is>
-      </c>
-      <c r="B7186" t="inlineStr">
-        <is>
-          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7187">
-      <c r="A7187" t="inlineStr">
-        <is>
-          <t>0000002208</t>
-        </is>
-      </c>
-      <c r="B7187" t="inlineStr">
-        <is>
-          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7188">
-      <c r="A7188" t="inlineStr">
-        <is>
-          <t>0000002213</t>
-        </is>
-      </c>
-      <c r="B7188" t="inlineStr">
-        <is>
-          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7189">
-      <c r="A7189" t="inlineStr">
-        <is>
-          <t>0000002210</t>
-        </is>
-      </c>
-      <c r="B7189" t="inlineStr">
-        <is>
-          <t>[('0000002210', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7190">
-      <c r="A7190" t="inlineStr"/>
-    </row>
-    <row r="7191">
-      <c r="A7191" t="inlineStr">
-        <is>
-          <t>0000002221</t>
-        </is>
-      </c>
-      <c r="B7191" t="inlineStr">
-        <is>
-          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7192">
-      <c r="A7192" t="inlineStr">
-        <is>
-          <t>0000002204</t>
-        </is>
-      </c>
-      <c r="B7192" t="inlineStr">
-        <is>
-          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7193">
-      <c r="A7193" t="inlineStr">
-        <is>
-          <t>0000002223</t>
-        </is>
-      </c>
-      <c r="B7193" t="inlineStr">
-        <is>
-          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7194">
-      <c r="A7194" t="inlineStr">
-        <is>
-          <t>0000002225</t>
-        </is>
-      </c>
-      <c r="B7194" t="inlineStr">
-        <is>
-          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7195">
-      <c r="A7195" t="inlineStr">
-        <is>
-          <t>0000002227</t>
-        </is>
-      </c>
-      <c r="B7195" t="inlineStr">
-        <is>
-          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7196">
-      <c r="A7196" t="inlineStr"/>
-    </row>
-    <row r="7197">
-      <c r="A7197" t="inlineStr">
-        <is>
-          <t>0000002228</t>
-        </is>
-      </c>
-      <c r="B7197" t="inlineStr">
-        <is>
-          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7198">
-      <c r="A7198" t="inlineStr">
-        <is>
-          <t>0000002226</t>
-        </is>
-      </c>
-      <c r="B7198" t="inlineStr">
-        <is>
-          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7199">
-      <c r="A7199" t="inlineStr"/>
-    </row>
-    <row r="7200">
-      <c r="A7200" t="inlineStr">
-        <is>
-          <t>0000002231</t>
-        </is>
-      </c>
-      <c r="B7200" t="inlineStr">
-        <is>
-          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7201">
-      <c r="A7201" t="inlineStr">
-        <is>
-          <t>0000002236</t>
-        </is>
-      </c>
-      <c r="B7201" t="inlineStr">
-        <is>
-          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7202">
-      <c r="A7202" t="inlineStr"/>
-    </row>
-    <row r="7203">
-      <c r="A7203" t="inlineStr"/>
-    </row>
-    <row r="7204">
-      <c r="A7204" t="inlineStr"/>
-    </row>
-    <row r="7205">
-      <c r="A7205" t="inlineStr">
-        <is>
-          <t>0000002224</t>
-        </is>
-      </c>
-      <c r="B7205" t="inlineStr">
-        <is>
-          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7206">
-      <c r="A7206" t="inlineStr">
-        <is>
-          <t>0000002233</t>
-        </is>
-      </c>
-      <c r="B7206" t="inlineStr">
-        <is>
-          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7207">
-      <c r="A7207" t="inlineStr">
-        <is>
-          <t>0000002229</t>
-        </is>
-      </c>
-      <c r="B7207" t="inlineStr">
-        <is>
-          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7208">
-      <c r="A7208" t="inlineStr">
-        <is>
-          <t>0000002234</t>
-        </is>
-      </c>
-      <c r="B7208" t="inlineStr">
-        <is>
-          <t>[('0000002234', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7209">
-      <c r="A7209" t="inlineStr">
-        <is>
-          <t>0000002235</t>
-        </is>
-      </c>
-      <c r="B7209" t="inlineStr">
-        <is>
-          <t>[('0000002235', 'CLOSED', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7210">
-      <c r="A7210" t="inlineStr">
-        <is>
-          <t>0000002230</t>
-        </is>
-      </c>
-      <c r="B7210" t="inlineStr">
-        <is>
-          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7211">
-      <c r="A7211" t="inlineStr">
-        <is>
-          <t>0000002232</t>
-        </is>
-      </c>
-      <c r="B7211" t="inlineStr">
         <is>
           <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
         </is>

--- a/Resources/support.xlsx
+++ b/Resources/support.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="line numbers" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Fin Trans R3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +401,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="2" customWidth="1" min="2" max="2"/>
@@ -2373,13 +2374,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="32" customWidth="1" min="2" max="2"/>
@@ -2400,24 +2401,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100164300</t>
+          <t>100164302</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AVR2201110156497</t>
+          <t>AVC2201110156500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100164301</t>
+          <t>100164308</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AVC2201110156499</t>
+          <t>AVC2201120156521</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>100164309</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AVR2201120156522</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>100164310</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AVC2201120156524</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>100164311</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AVC2201120156526</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100164315</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AVR2201120156533</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>100164316</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AVC2201120156535</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>100164317</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AVC2201120156536</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>100164332</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AVR2201130156557</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>100164333</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AVC2201130156559</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>100164334</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AVC2201130156560</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>100164335</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AVC2201130156561</t>
         </is>
       </c>
     </row>
@@ -2432,18 +2553,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="58" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2465,6 +2586,116 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PS_AnnaPowell117282@rep.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22291929</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>'No Cost Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PS_ChristopherSloan563918@rep.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22291934</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>'Donation Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PS_ElizabethJones973547@rep.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22291935</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>'No Cost Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PS_BrandonLee345927@rep.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22291936</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>'Donation Signup'</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PS_AngelJohnson920242@rep.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>REP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22291938</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>'30$ kit Signup'</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2716,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2497,13 +2728,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B239"/>
+  <dimension ref="A2:B817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="436" customWidth="1" min="2" max="2"/>
@@ -4333,7 +4564,6 @@
         </is>
       </c>
     </row>
-    <row r="184"/>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
@@ -4394,7 +4624,6 @@
         </is>
       </c>
     </row>
-    <row r="190"/>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
@@ -4419,7 +4648,6 @@
         </is>
       </c>
     </row>
-    <row r="193"/>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
@@ -4444,9 +4672,6 @@
         </is>
       </c>
     </row>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
@@ -4675,9 +4900,6 @@
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr"/>
-    </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
@@ -4738,9 +4960,6 @@
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr"/>
-    </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
@@ -4765,9 +4984,6 @@
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr"/>
-    </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
@@ -4792,15 +5008,6 @@
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr"/>
-    </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
@@ -4880,6 +5087,5742 @@
         </is>
       </c>
       <c r="B239" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="762"/>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="768"/>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="771"/>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>0000002205</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>[('0000002205', 'CLOSED', '036.111', 'Return Merch Not Damaged'), ('0000002205', 'CLOSED', '037.111', 'Return Merch Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>0000002207</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>[('0000002207', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>0000002214</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>[('0000002214', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>0000002211</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>[('0000002211', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>0000002212</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>[('0000002212', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>0000002209</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>[('0000002209', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>0000002206</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>[('0000002206', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002206', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002206', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>0000002215</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>[('0000002215', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002215', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002215', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>0000002208</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>[('0000002208', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002208', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002208', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>0000002213</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>[('0000002213', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>0000002210</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>[('0000002210', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>0000002221</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>[('0000002221', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>0000002204</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>[('0000002204', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>0000002223</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>[('0000002223', 'CLOSED', '041.111', 'Returns Credit For Missing Product')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>0000002225</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>[('0000002225', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>0000002227</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>[('0000002227', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>0000002228</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>[('0000002228', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>0000002226</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>[('0000002226', 'CLOSED', '036.111', 'Return Merch Not Damaged')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>0000002231</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>[('0000002231', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002231', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002231', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>0000002236</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>[('0000002236', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002236', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002236', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>0000002224</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>[('0000002224', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002224', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002224', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>0000002233</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>[('0000002233', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002233', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002233', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>0000002229</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>[('0000002229', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>0000002234</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>[('0000002234', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>0000002235</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>[('0000002235', 'CLOSED', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>0000002230</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>[('0000002230', 'CLOSEDSHORT', None, None)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>0000002232</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
         <is>
           <t>[('0000002232', 'CLOSED', '031.001', 'Add/Remove Online Store Award Sales'), ('0000002232', 'CLOSED', '056.001', 'Add/Remove Online Store Net Sales'), ('0000002232', 'CLOSED', '057.001', 'Online Store Order Earnings')]</t>
         </is>
